--- a/data/trans_orig/P02E$contratada-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P02E$contratada-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC57D235-9906-4E50-B4D0-DEE29E3E73F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5614FE-21D2-4626-B744-B9B333DF85AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{403A4490-804D-449C-92D3-A3A6EEDDF97A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{18409A97-B5EE-48B8-8BC0-A2A8A8C167C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="367">
   <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2007</t>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -460,7 +460,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2012</t>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -835,7 +835,7 @@
     <t>92,68%</t>
   </si>
   <si>
-    <t>Hogares según el tipo de ayuda al cuidado principal en 2016</t>
+    <t>Hogares según el tipo de ayuda al cuidado principal (multirrespuesta) en 2016</t>
   </si>
   <si>
     <t>2,16%</t>
@@ -1550,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC8449-D354-4D0B-A814-2E071C772A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE3A023-FE1A-4E2F-AF85-81BFC63B7A86}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2187,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90652CA5-E932-4D21-9F02-B508A4EB6C9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC03B32-BAA7-4686-A553-3FD19F5F176F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429A15F2-E0AD-4170-8D96-4288F753E2E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D06BAC8-983B-4BC7-B784-DEC0210FDCD2}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
